--- a/data/gym_data_backup.xlsx
+++ b/data/gym_data_backup.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Members" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Staff" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Member Attendance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Staff Attendance" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Payments" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Inventory" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Custom Products" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sales" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Packages" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Members" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Member Attendance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Staff Attendance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Payments" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Custom Products" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Packages" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +24,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -63,11 +66,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +525,142 @@
         <is>
           <t>height</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Abdullah</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3452820243</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Saboor</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3452949573</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>31-02-2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Strong</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>70</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Danish Javed</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3089721908</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mohalla Sheikh Banda, Ghourghushti, Tehsil Hazro, District Attock</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3089721908</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>08-04-2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,6 +894,88 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Abdullah</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08-04-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Abdullah</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08-04-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Danish Javed</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Paid</t>
         </is>
       </c>
     </row>
@@ -976,7 +1198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1026,6 +1248,44 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Group Training</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6 days/week</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6 days/week</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>All Day Access</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/gym_data_backup.xlsx
+++ b/data/gym_data_backup.xlsx
@@ -24,10 +24,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -66,12 +63,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -857,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,13 +889,25 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>additional_cost</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>comments</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>status</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45716</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08-04-2025</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>1001</v>
@@ -915,9 +923,17 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F2" t="inlineStr">
+        <v>50100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GOOD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Paid</t>
         </is>
@@ -930,11 +946,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Abdullah</t>
+          <t>Danish Javed</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -945,7 +961,15 @@
       <c r="E3" t="n">
         <v>50000</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>GOOD</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Paid</t>
         </is>
@@ -954,15 +978,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08-04-2025</t>
+          <t>08-05-2025</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Danish Javed</t>
+          <t>Abdullah</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -971,9 +995,17 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="F4" t="inlineStr">
+        <v>51000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>BAD</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paid</t>
         </is>
